--- a/Electrical Team To-Do List.xlsx
+++ b/Electrical Team To-Do List.xlsx
@@ -269,19 +269,19 @@
     <t>Needs final verification and add as needed; hot glue any loose connections</t>
   </si>
   <si>
-    <t>Needs testing with EVERYTHING installed; resolder SW.1 connector</t>
-  </si>
-  <si>
-    <t>sent for printing</t>
-  </si>
-  <si>
     <t>find temp range and test together</t>
   </si>
   <si>
-    <t>pcb soldering/wiring and integration, mounting</t>
-  </si>
-  <si>
     <t>potential for refuel timer</t>
+  </si>
+  <si>
+    <t>Needs testing</t>
+  </si>
+  <si>
+    <t>mounting and needs testing</t>
+  </si>
+  <si>
+    <t>sent for printing (pick up by Monday 1/22)</t>
   </si>
 </sst>
 </file>
@@ -376,15 +376,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CFB08-AFAD-42AF-956E-89BADC54C840}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,24 +715,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
       <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -920,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -967,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1018,16 +1018,16 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4">
